--- a/doc/04_DB定義書_チームEM.xlsx
+++ b/doc/04_DB定義書_チームEM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1385118-2594-4990-9919-B7CEA5020526}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697E8AF2-64A0-4EEE-9F12-E6C24DED6A61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -986,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,7 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -1044,13 +1044,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2499,7 +2493,7 @@
         <v>99</v>
       </c>
       <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L16" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>item_name varchar (100),</v>
       </c>
     </row>
@@ -2527,7 +2521,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>item_url varchar (300),</v>
       </c>
     </row>
@@ -2555,7 +2549,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>item_price int ,</v>
       </c>
     </row>
@@ -2579,7 +2573,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>item_category int ,</v>
       </c>
     </row>
@@ -2607,7 +2601,7 @@
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>frequency_purchase int ,</v>
       </c>
     </row>
@@ -2637,7 +2631,7 @@
         <v>99</v>
       </c>
       <c r="L16" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>item_switch int ,</v>
       </c>
     </row>
@@ -2711,7 +2705,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L15:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L19:L29" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2729,7 +2723,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2747,7 +2741,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2765,7 +2759,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2783,7 +2777,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2801,7 +2795,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2819,7 +2813,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2837,7 +2831,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2855,7 +2849,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2873,7 +2867,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2891,7 +2885,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3877,7 +3871,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" ref="L15:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4126,7 +4120,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4274,9 +4268,7 @@
       <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
@@ -4288,7 +4280,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>item_id int (100),</v>
+        <v>item_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4634,6 +4626,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5154,79 +5147,79 @@
       <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D32" s="20" t="s">
+      <c r="D32" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="20" t="s">
+      <c r="D33" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="20" t="s">
+      <c r="D34" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="20" t="s">
+      <c r="D35" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35">
         <v>4</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="20" t="s">
+      <c r="D36" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="20" t="s">
+      <c r="D37" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37">
         <v>6</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37">
         <v>365</v>
       </c>
     </row>

--- a/doc/04_DB定義書_チームEM.xlsx
+++ b/doc/04_DB定義書_チームEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697E8AF2-64A0-4EEE-9F12-E6C24DED6A61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D48E28-F5AD-436B-8F2F-6A33FEE2A4F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="125">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アドミンマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -610,13 +606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>購入履歴トランザクション</t>
-    <rPh sb="0" eb="4">
-      <t>コウニュウリレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>履歴ID</t>
     <rPh sb="0" eb="2">
       <t>リレキ</t>
@@ -762,6 +751,13 @@
   </si>
   <si>
     <t>アドミン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入履歴</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウリレキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1470,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>25</v>
@@ -1485,10 +1481,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>25</v>
@@ -1500,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>25</v>
@@ -1515,10 +1511,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -1530,10 +1526,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -1545,10 +1541,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
@@ -1810,7 +1806,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1846,7 +1842,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1858,7 +1854,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1906,20 +1902,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1934,13 +1930,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1948,11 +1944,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1964,13 +1960,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -1978,7 +1974,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1992,13 +1988,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -2006,7 +2002,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2020,13 +2016,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2324,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC10B78A-9483-4303-AFD1-F34561308948}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2343,7 +2339,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2379,7 +2375,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2391,7 +2387,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2400,7 +2396,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2444,20 +2440,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2472,13 +2468,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2486,11 +2482,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L16" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2502,13 +2498,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2516,7 +2512,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2530,13 +2526,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3">
         <v>300</v>
@@ -2544,7 +2540,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2558,13 +2554,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2582,19 +2578,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2610,25 +2606,25 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="3">
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -2640,19 +2636,19 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -2668,19 +2664,19 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
@@ -2896,13 +2892,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="10">
         <v>1</v>
@@ -2910,7 +2906,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -2918,7 +2914,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
@@ -2926,7 +2922,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="11">
         <v>4</v>
@@ -2934,13 +2930,13 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="15"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2948,7 +2944,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7">
         <v>2</v>
@@ -2956,7 +2952,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
@@ -2964,7 +2960,7 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7">
         <v>4</v>
@@ -2972,7 +2968,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="9">
         <v>5</v>
@@ -2980,13 +2976,13 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="15"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -2994,7 +2990,7 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="9">
         <v>1</v>
@@ -3002,20 +2998,20 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="18"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="15"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="9"/>
@@ -3023,6 +3019,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3030,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FB5A75-9CF3-4465-997F-A928C300B099}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3049,7 +3046,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3085,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3097,7 +3094,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3145,20 +3142,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3173,13 +3170,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -3187,11 +3184,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3203,13 +3200,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -3217,7 +3214,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3547,8 +3544,1097 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED48830-A72F-4942-953A-A9AD5F39E722}">
   <dimension ref="A1:L36"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table inquiries (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>inquiries_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>500</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>inquiries_subject varchar (50),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>inquiries_content varchar (500),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>inquiries_status int ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">inquiries_date date </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89271A-FE0A-4ADB-AEB1-BEC7677CDB52}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table history (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>history_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>item_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">history_date date </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:I17">
+    <sortCondition sortBy="cellColor" ref="B12:B17"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECEEFB0-B859-4CA2-9155-D64D54491D08}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3566,7 +4652,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3602,7 +4688,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3614,7 +4700,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3654,7 +4740,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table inquiries (</v>
+        <v>create table frequency (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3665,54 +4751,52 @@
         <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>inquiries_id int ,</v>
+        <v>frequency_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+      <c r="B11" t="s">
+        <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>frequency_name varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3720,611 +4804,53 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="3">
-        <v>50</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3">
-        <v>500</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>inquiries_subject varchar (50),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>inquiries_content varchar (500),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>inquiries_status int ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">inquiries_date date </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="9">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89271A-FE0A-4ADB-AEB1-BEC7677CDB52}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table history (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>history_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>item_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">history_date date </v>
+        <v>frequency_purchase int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">frequency_days int </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4620,546 +5146,23 @@
         <v>20</v>
       </c>
     </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:I17">
-    <sortCondition sortBy="cellColor" ref="B12:B17"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECEEFB0-B859-4CA2-9155-D64D54491D08}">
-  <dimension ref="A1:L37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table frequency (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>frequency_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>frequency_name varchar (10),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>frequency_purchase int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">frequency_days int </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5170,7 +5173,7 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -5181,7 +5184,7 @@
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -5192,7 +5195,7 @@
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -5203,7 +5206,7 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -5214,7 +5217,7 @@
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37">
         <v>6</v>

--- a/doc/04_DB定義書_チームEM.xlsx
+++ b/doc/04_DB定義書_チームEM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D48E28-F5AD-436B-8F2F-6A33FEE2A4F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8C49B-7B8C-426E-958E-BFA0373E6417}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4634,7 +4634,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_DB定義書_チームEM.xlsx
+++ b/doc/04_DB定義書_チームEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8C49B-7B8C-426E-958E-BFA0373E6417}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6104C79-0F0C-4CD7-94CE-5E9A536A0473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -485,14 +485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>inquiries_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>inquiries_subject</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>*テーブルの下に備考</t>
     <rPh sb="6" eb="7">
       <t>シタ</t>
@@ -547,10 +539,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>inquiries_status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -660,10 +648,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>inquiries_content</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期間名</t>
     <rPh sb="0" eb="2">
       <t>キカン</t>
@@ -674,10 +658,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>inquiries_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>frequency_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -758,6 +738,26 @@
     <rPh sb="0" eb="4">
       <t>コウニュウリレキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inquiry_subject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inquiry_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inquiry_content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inquiry_status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inquiry_date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1466,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>25</v>
@@ -1481,10 +1481,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>25</v>
@@ -1496,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>25</v>
@@ -1511,10 +1511,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -1526,10 +1526,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -1544,7 +1544,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
@@ -1806,7 +1806,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1842,7 +1842,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1854,7 +1854,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1902,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -2339,7 +2339,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2375,7 +2375,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2387,7 +2387,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2440,10 +2440,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L16" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2609,7 +2609,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -2624,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -2670,7 +2670,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C49" s="18"/>
     </row>
@@ -3046,7 +3046,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3082,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3094,7 +3094,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3142,10 +3142,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -3544,7 +3544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED48830-A72F-4942-953A-A9AD5F39E722}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3561,7 +3563,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3597,7 +3599,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3609,7 +3611,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3657,10 +3659,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -3677,7 +3679,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>inquiries_id int ,</v>
+        <v>inquiry_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3703,7 +3705,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3718,7 +3720,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>33</v>
@@ -3746,7 +3748,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>33</v>
@@ -3761,7 +3763,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>inquiries_subject varchar (50),</v>
+        <v>inquiry_subject varchar (50),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3769,10 +3771,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>34</v>
@@ -3789,7 +3791,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>inquiries_content varchar (500),</v>
+        <v>inquiry_content varchar (500),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3797,10 +3799,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>35</v>
@@ -3815,7 +3817,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>inquiries_status int ,</v>
+        <v>inquiry_status int ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3833,7 +3835,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">inquiries_date date </v>
+        <v xml:space="preserve">inquiry_date date </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4077,13 +4079,13 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="15"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -4091,7 +4093,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -4099,7 +4101,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="9">
         <v>2</v>
@@ -4135,7 +4137,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4171,7 +4173,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4183,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4231,10 +4233,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -4259,10 +4261,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>34</v>
@@ -4275,7 +4277,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4287,10 +4289,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>35</v>
@@ -4633,7 +4635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECEEFB0-B859-4CA2-9155-D64D54491D08}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4700,7 +4702,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4748,10 +4750,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -4776,10 +4778,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -4807,7 +4809,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -4832,10 +4834,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -5148,16 +5150,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -5217,7 +5219,7 @@
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <v>6</v>

--- a/doc/04_DB定義書_チームEM.xlsx
+++ b/doc/04_DB定義書_チームEM.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6104C79-0F0C-4CD7-94CE-5E9A536A0473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1547DAB8-D689-4496-8E5D-D46AD73072BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
     <sheet name="items" sheetId="7" r:id="rId3"/>
     <sheet name="admin" sheetId="9" r:id="rId4"/>
-    <sheet name="inquiries" sheetId="8" r:id="rId5"/>
-    <sheet name="history" sheetId="11" r:id="rId6"/>
+    <sheet name="history" sheetId="11" r:id="rId5"/>
+    <sheet name="inquiries" sheetId="8" r:id="rId6"/>
     <sheet name="frequency" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="126">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -553,13 +553,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1年数</t>
-    <rPh sb="1" eb="3">
-      <t>ネンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>購入日</t>
     <rPh sb="0" eb="3">
       <t>コウニュウビ</t>
@@ -758,6 +751,20 @@
   </si>
   <si>
     <t>inquiry_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（例）</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1466,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>25</v>
@@ -1481,10 +1488,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>25</v>
@@ -1496,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>25</v>
@@ -1511,10 +1518,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -1526,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -1544,7 +1551,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
@@ -1806,7 +1813,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1842,7 +1849,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1854,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1902,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -2321,7 +2328,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2339,7 +2346,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2375,7 +2382,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2387,7 +2394,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2440,10 +2447,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -2486,7 +2493,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L16" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2609,7 +2616,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -2624,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -2670,7 +2677,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3027,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FB5A75-9CF3-4465-997F-A928C300B099}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3046,7 +3053,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3082,7 +3089,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3094,7 +3101,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3142,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -3541,11 +3548,528 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89271A-FE0A-4ADB-AEB1-BEC7677CDB52}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table history (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>history_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>item_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">history_date date </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:I17">
+    <sortCondition sortBy="cellColor" ref="B12:B17"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED48830-A72F-4942-953A-A9AD5F39E722}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3563,7 +4087,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3599,7 +4123,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3611,7 +4135,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3659,10 +4183,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -3705,7 +4229,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3720,7 +4244,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>33</v>
@@ -3748,7 +4272,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>33</v>
@@ -3774,7 +4298,7 @@
         <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>34</v>
@@ -3802,7 +4326,7 @@
         <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>35</v>
@@ -4114,529 +4638,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89271A-FE0A-4ADB-AEB1-BEC7677CDB52}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table history (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>history_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>item_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">history_date date </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:I17">
-    <sortCondition sortBy="cellColor" ref="B12:B17"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECEEFB0-B859-4CA2-9155-D64D54491D08}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4702,7 +4709,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4750,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -4778,10 +4785,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -4809,7 +4816,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -4837,7 +4844,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -5150,10 +5157,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
         <v>42</v>
@@ -5173,7 +5180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>58</v>
       </c>
@@ -5184,7 +5191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>61</v>
       </c>
@@ -5195,7 +5202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>59</v>
       </c>
@@ -5206,7 +5213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>60</v>
       </c>
@@ -5217,9 +5224,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -5231,5 +5241,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/04_DB定義書_チームEM.xlsx
+++ b/doc/04_DB定義書_チームEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1547DAB8-D689-4496-8E5D-D46AD73072BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FD6F95-9D6F-46F3-B13D-74B1A9EB31D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2328,7 +2328,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3551,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89271A-FE0A-4ADB-AEB1-BEC7677CDB52}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4642,7 +4642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECEEFB0-B859-4CA2-9155-D64D54491D08}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
